--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_8.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_8.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="244">
   <si>
     <t>STR</t>
   </si>
@@ -93,18 +93,239 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>09/07/2018</t>
+    <t>11/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d9077362-r629019416-B_on_Canal-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>60864</t>
+  </si>
+  <si>
+    <t>9077362</t>
+  </si>
+  <si>
+    <t>629019416</t>
+  </si>
+  <si>
+    <t>10/27/2018</t>
+  </si>
+  <si>
+    <t>Awful Experience</t>
+  </si>
+  <si>
+    <t>We recently stayed at the B on Canal.
+We had booked 2 rooms for September 22nd thru 26th.  Unfortunately our plane was cancelled due to the weather and rescheduled for the following morning.
+We called and let the hotel know.
+We arrived at the hotel early afternoon on September 23rd ready to start our delayed adventure in New Orleans.
+At the front desk we asked about getting a refund for the night we missed.  We were told no, they don't give refunds due to bad weather.  The manager Nicole said she would call expedia for us thou and see if they would refund us.
+We continued to check in....however we were then told we couldn't check in till 4pm as our rooms were not ready.
+We asked how could our rooms not be ready when we were suppose to have arrived the night before.
+They had booked the rooms to other guests and now we had to wait till 4pm for them to be cleaned even thou we had paid for those rooms and even worse they adamantly wouldn't refund us the night!
+What hotel does this?
+The following morning we discovered the toilet didn't work and was plugged, also no bathroom fan or window in the bathroom.
+I informed Keith, the superintendent of the issue, he said he would send someone up.
+When we returned later that evening we discovered the toilet still wasn't working and the room hadn't...We recently stayed at the B on Canal.We had booked 2 rooms for September 22nd thru 26th.  Unfortunately our plane was cancelled due to the weather and rescheduled for the following morning.We called and let the hotel know.We arrived at the hotel early afternoon on September 23rd ready to start our delayed adventure in New Orleans.At the front desk we asked about getting a refund for the night we missed.  We were told no, they don't give refunds due to bad weather.  The manager Nicole said she would call expedia for us thou and see if they would refund us.We continued to check in....however we were then told we couldn't check in till 4pm as our rooms were not ready.We asked how could our rooms not be ready when we were suppose to have arrived the night before.They had booked the rooms to other guests and now we had to wait till 4pm for them to be cleaned even thou we had paid for those rooms and even worse they adamantly wouldn't refund us the night!What hotel does this?The following morning we discovered the toilet didn't work and was plugged, also no bathroom fan or window in the bathroom.I informed Keith, the superintendent of the issue, he said he would send someone up.When we returned later that evening we discovered the toilet still wasn't working and the room hadn't been cleaned nor the bed made etc.  The following day after complaining again the toilet was finally fixed!We also asked Keith about refunding the missed night, he said he would call Expedia as the refund had to come from them and said he couldn't do anything about it.When we returned home to Canada, I called Expedia who informed me no one from B on the Canal had called them and that they couldn't refund the night unless B on the Canal agreed to it and gave them a confirmation refund number.  They called the hotel and spoke with Nicole who once again refused the refund.I then called Nicole and was hung up on.A couple of days later I realized my credit card had 4 different charges on it from the hotel totalling $500.  The trip was prepaid via Expedia and we didn't purchase anything during our stay at the hotel that we didn't pay cash for.I called the hotel several times, was put on hold and bounced around being transferred numerous times.  I must have spent a couple of hours in total trying to speak to someone who could help and refund the transactions.  I was hung up on a couple of times, I was told to email the billing department and that I would hear back from them within 24 hrs.  Two weeks later I've had no response to the email.  I finally spoke with someone who again put me on hold for about 30 minutes while she looked up the reservation.  She offered no explanation why my visa was charged other than it was a mistake.  She said she would refund that day.  I then checked my visa statement for the refund and discovered they had only refunded $295.  Again 2 more frustrating phone calls of not being able to speak with anyone who could help.  I decided to call my credit card company to resolve the matter.I highly recommend staying away from this hotel no matter what deals are offered.A vacation should be a stress free time and this hotels customer service is atrocious!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>We recently stayed at the B on Canal.
+We had booked 2 rooms for September 22nd thru 26th.  Unfortunately our plane was cancelled due to the weather and rescheduled for the following morning.
+We called and let the hotel know.
+We arrived at the hotel early afternoon on September 23rd ready to start our delayed adventure in New Orleans.
+At the front desk we asked about getting a refund for the night we missed.  We were told no, they don't give refunds due to bad weather.  The manager Nicole said she would call expedia for us thou and see if they would refund us.
+We continued to check in....however we were then told we couldn't check in till 4pm as our rooms were not ready.
+We asked how could our rooms not be ready when we were suppose to have arrived the night before.
+They had booked the rooms to other guests and now we had to wait till 4pm for them to be cleaned even thou we had paid for those rooms and even worse they adamantly wouldn't refund us the night!
+What hotel does this?
+The following morning we discovered the toilet didn't work and was plugged, also no bathroom fan or window in the bathroom.
+I informed Keith, the superintendent of the issue, he said he would send someone up.
+When we returned later that evening we discovered the toilet still wasn't working and the room hadn't...We recently stayed at the B on Canal.We had booked 2 rooms for September 22nd thru 26th.  Unfortunately our plane was cancelled due to the weather and rescheduled for the following morning.We called and let the hotel know.We arrived at the hotel early afternoon on September 23rd ready to start our delayed adventure in New Orleans.At the front desk we asked about getting a refund for the night we missed.  We were told no, they don't give refunds due to bad weather.  The manager Nicole said she would call expedia for us thou and see if they would refund us.We continued to check in....however we were then told we couldn't check in till 4pm as our rooms were not ready.We asked how could our rooms not be ready when we were suppose to have arrived the night before.They had booked the rooms to other guests and now we had to wait till 4pm for them to be cleaned even thou we had paid for those rooms and even worse they adamantly wouldn't refund us the night!What hotel does this?The following morning we discovered the toilet didn't work and was plugged, also no bathroom fan or window in the bathroom.I informed Keith, the superintendent of the issue, he said he would send someone up.When we returned later that evening we discovered the toilet still wasn't working and the room hadn't been cleaned nor the bed made etc.  The following day after complaining again the toilet was finally fixed!We also asked Keith about refunding the missed night, he said he would call Expedia as the refund had to come from them and said he couldn't do anything about it.When we returned home to Canada, I called Expedia who informed me no one from B on the Canal had called them and that they couldn't refund the night unless B on the Canal agreed to it and gave them a confirmation refund number.  They called the hotel and spoke with Nicole who once again refused the refund.I then called Nicole and was hung up on.A couple of days later I realized my credit card had 4 different charges on it from the hotel totalling $500.  The trip was prepaid via Expedia and we didn't purchase anything during our stay at the hotel that we didn't pay cash for.I called the hotel several times, was put on hold and bounced around being transferred numerous times.  I must have spent a couple of hours in total trying to speak to someone who could help and refund the transactions.  I was hung up on a couple of times, I was told to email the billing department and that I would hear back from them within 24 hrs.  Two weeks later I've had no response to the email.  I finally spoke with someone who again put me on hold for about 30 minutes while she looked up the reservation.  She offered no explanation why my visa was charged other than it was a mistake.  She said she would refund that day.  I then checked my visa statement for the refund and discovered they had only refunded $295.  Again 2 more frustrating phone calls of not being able to speak with anyone who could help.  I decided to call my credit card company to resolve the matter.I highly recommend staying away from this hotel no matter what deals are offered.A vacation should be a stress free time and this hotels customer service is atrocious!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d9077362-r626639158-B_on_Canal-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>626639158</t>
+  </si>
+  <si>
+    <t>10/19/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walking distance to everything </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is definitely  a good choice when thinking about being in the french Quarter.  Street car is right in front if you don’t wish to walk.  Room is perfect , has a nice sitting area, great decor and is immaculate.   Staff are very pleasant !Canal Street is busy and can be loud but it is part of the whole French Quarter ambiance.  </t>
+  </si>
+  <si>
+    <t>October 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d9077362-r626181912-B_on_Canal-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>626181912</t>
+  </si>
+  <si>
+    <t>10/18/2018</t>
+  </si>
+  <si>
+    <t>Insulting Customer Service Levels</t>
+  </si>
+  <si>
+    <t>This hotel is pretty...comfortable beds, good location. HOWEVER, I've never had such poor customer service in all my years of traveling around the world. My husband and I had a 3 night stay at this location and had issues every day we were there. Our first day, we left our room around 10:00 a.m. and did not return until 8:00 p.m. Once we got to our room, we found our door bolted OPEN! No telling how long it had been like that. We went to our room phone to call the manager on duty, but our phone didn't work. So we had to back down to the lobby to tell someone about what had happened. When we spoke to the manager on duty, he told us to go check and ensure nothing was missing and that he'd meet us in our room in a few minutes. He never showed up. The next day, we arrived back to our room to find things in our suitcase not as we left them and NO towels in our bathroom (for the second time), and our phone still not working. Once again, we complained to the manager on duty, and got an apology and a promise he would "conduct an investigation" into what happened. The next day, we asked to speak with the new manager on duty, Nicole.  The front desk clerk went into Nicole's office to let her know we needed to speak...This hotel is pretty...comfortable beds, good location. HOWEVER, I've never had such poor customer service in all my years of traveling around the world. My husband and I had a 3 night stay at this location and had issues every day we were there. Our first day, we left our room around 10:00 a.m. and did not return until 8:00 p.m. Once we got to our room, we found our door bolted OPEN! No telling how long it had been like that. We went to our room phone to call the manager on duty, but our phone didn't work. So we had to back down to the lobby to tell someone about what had happened. When we spoke to the manager on duty, he told us to go check and ensure nothing was missing and that he'd meet us in our room in a few minutes. He never showed up. The next day, we arrived back to our room to find things in our suitcase not as we left them and NO towels in our bathroom (for the second time), and our phone still not working. Once again, we complained to the manager on duty, and got an apology and a promise he would "conduct an investigation" into what happened. The next day, we asked to speak with the new manager on duty, Nicole.  The front desk clerk went into Nicole's office to let her know we needed to speak with her. When the front desk clerk came back out, she said Nicole wanted to know why we wanted to talk to her. We said we had some issues with our room we needed to discuss with her. She went back to Nicole and told her--once she returned, she said Nicole would be right out. Nicole was evidently too busy to come speak with us. We waited in the lobby for more than 15 minutes for her to come out of her office, but had to leave to catch our flight. I'm disgusted by this hotel's lack of concern for their customers and their safety. DO NOT BOOK at this hotel. THEY don't care about your safety or any of your concerns. NO concessions were offered to my husband and I for all the BS we went through because of their staff.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>This hotel is pretty...comfortable beds, good location. HOWEVER, I've never had such poor customer service in all my years of traveling around the world. My husband and I had a 3 night stay at this location and had issues every day we were there. Our first day, we left our room around 10:00 a.m. and did not return until 8:00 p.m. Once we got to our room, we found our door bolted OPEN! No telling how long it had been like that. We went to our room phone to call the manager on duty, but our phone didn't work. So we had to back down to the lobby to tell someone about what had happened. When we spoke to the manager on duty, he told us to go check and ensure nothing was missing and that he'd meet us in our room in a few minutes. He never showed up. The next day, we arrived back to our room to find things in our suitcase not as we left them and NO towels in our bathroom (for the second time), and our phone still not working. Once again, we complained to the manager on duty, and got an apology and a promise he would "conduct an investigation" into what happened. The next day, we asked to speak with the new manager on duty, Nicole.  The front desk clerk went into Nicole's office to let her know we needed to speak...This hotel is pretty...comfortable beds, good location. HOWEVER, I've never had such poor customer service in all my years of traveling around the world. My husband and I had a 3 night stay at this location and had issues every day we were there. Our first day, we left our room around 10:00 a.m. and did not return until 8:00 p.m. Once we got to our room, we found our door bolted OPEN! No telling how long it had been like that. We went to our room phone to call the manager on duty, but our phone didn't work. So we had to back down to the lobby to tell someone about what had happened. When we spoke to the manager on duty, he told us to go check and ensure nothing was missing and that he'd meet us in our room in a few minutes. He never showed up. The next day, we arrived back to our room to find things in our suitcase not as we left them and NO towels in our bathroom (for the second time), and our phone still not working. Once again, we complained to the manager on duty, and got an apology and a promise he would "conduct an investigation" into what happened. The next day, we asked to speak with the new manager on duty, Nicole.  The front desk clerk went into Nicole's office to let her know we needed to speak with her. When the front desk clerk came back out, she said Nicole wanted to know why we wanted to talk to her. We said we had some issues with our room we needed to discuss with her. She went back to Nicole and told her--once she returned, she said Nicole would be right out. Nicole was evidently too busy to come speak with us. We waited in the lobby for more than 15 minutes for her to come out of her office, but had to leave to catch our flight. I'm disgusted by this hotel's lack of concern for their customers and their safety. DO NOT BOOK at this hotel. THEY don't care about your safety or any of your concerns. NO concessions were offered to my husband and I for all the BS we went through because of their staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d9077362-r625368665-B_on_Canal-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>625368665</t>
+  </si>
+  <si>
+    <t>10/16/2018</t>
+  </si>
+  <si>
+    <t>Well positioned for everything off Canal St</t>
+  </si>
+  <si>
+    <t>We booked this online from reviews on Tripadvisor as we were travelling from Scotland to see New Oleans for a Week. we arrived in at 2.00 a.m. in the morning and the girls at reception were very quick to get us booked in allowing us to get some sleep, which was appreciated after 20 hours of flights.
+The twin room was ideal and spaceous, had decent if not old aircon, good shower and bathroom, wardrobe space and dressing table with drawers. It was a corner room so we had great views. 
+The bathroom was the only area that needed a bit of work done. The toilet kept blocking due to the plumbing system, however there was a method of avoiding this which we figured out, but a bit too crude to mention, also the towel rail kept coming off the wall, at home I could have fixed this in 2 minutes, but didn't have the toolbag with me on this trip thankfully. Apart from that, great beds. linen was only changed once, however fresh towels were provided every day and beds made up every day. 
+It had a really nice bar which also does breakfast, but the bar shuts at 10.00 each night as I guess they assume everyone just uses it as a starting point, which is fair enough.
+The staff are really nice and helpfull, the rooms are well insulated from noise, I never heard anything at all...We booked this online from reviews on Tripadvisor as we were travelling from Scotland to see New Oleans for a Week. we arrived in at 2.00 a.m. in the morning and the girls at reception were very quick to get us booked in allowing us to get some sleep, which was appreciated after 20 hours of flights.The twin room was ideal and spaceous, had decent if not old aircon, good shower and bathroom, wardrobe space and dressing table with drawers. It was a corner room so we had great views. The bathroom was the only area that needed a bit of work done. The toilet kept blocking due to the plumbing system, however there was a method of avoiding this which we figured out, but a bit too crude to mention, also the towel rail kept coming off the wall, at home I could have fixed this in 2 minutes, but didn't have the toolbag with me on this trip thankfully. Apart from that, great beds. linen was only changed once, however fresh towels were provided every day and beds made up every day. It had a really nice bar which also does breakfast, but the bar shuts at 10.00 each night as I guess they assume everyone just uses it as a starting point, which is fair enough.The staff are really nice and helpfull, the rooms are well insulated from noise, I never heard anything at all except when you were in the corridors and the residents (some of them in large groups at the weekend) were waiting on 1 of the only 2 lifts. to be honest we only had to wait twice on lifts arriving to floor 11, the rest of the times it came within a minute. The reception has a secured and locked baggage room which is ticketted and only accessible by the reception staff for leaving your bags in safely till you are ready to departIt's situated at the bottom of Canal street and you can walk to Borboun St in 10 minutes, the riverwalk and mississippi in 20 minutes, and the price was reasonable at $1200 for a week for 2 people. The first 200 yards when you leave the hotel are a bit rundown and there is some development going on, and  there are a few homeless and sometimes aimless people about, but they don't bother you at all. The street talk is funny and loud as you pass by groups, but no hassle whatsoever as long as you offer due respect. There are better and nicer hotels in the area with world-wide recognized names, but this one is well positioned, clean and very well priced, I would recommend it to anyone from teenage to late middle age.MoreShow less</t>
+  </si>
+  <si>
+    <t>We booked this online from reviews on Tripadvisor as we were travelling from Scotland to see New Oleans for a Week. we arrived in at 2.00 a.m. in the morning and the girls at reception were very quick to get us booked in allowing us to get some sleep, which was appreciated after 20 hours of flights.
+The twin room was ideal and spaceous, had decent if not old aircon, good shower and bathroom, wardrobe space and dressing table with drawers. It was a corner room so we had great views. 
+The bathroom was the only area that needed a bit of work done. The toilet kept blocking due to the plumbing system, however there was a method of avoiding this which we figured out, but a bit too crude to mention, also the towel rail kept coming off the wall, at home I could have fixed this in 2 minutes, but didn't have the toolbag with me on this trip thankfully. Apart from that, great beds. linen was only changed once, however fresh towels were provided every day and beds made up every day. 
+It had a really nice bar which also does breakfast, but the bar shuts at 10.00 each night as I guess they assume everyone just uses it as a starting point, which is fair enough.
+The staff are really nice and helpfull, the rooms are well insulated from noise, I never heard anything at all...We booked this online from reviews on Tripadvisor as we were travelling from Scotland to see New Oleans for a Week. we arrived in at 2.00 a.m. in the morning and the girls at reception were very quick to get us booked in allowing us to get some sleep, which was appreciated after 20 hours of flights.The twin room was ideal and spaceous, had decent if not old aircon, good shower and bathroom, wardrobe space and dressing table with drawers. It was a corner room so we had great views. The bathroom was the only area that needed a bit of work done. The toilet kept blocking due to the plumbing system, however there was a method of avoiding this which we figured out, but a bit too crude to mention, also the towel rail kept coming off the wall, at home I could have fixed this in 2 minutes, but didn't have the toolbag with me on this trip thankfully. Apart from that, great beds. linen was only changed once, however fresh towels were provided every day and beds made up every day. It had a really nice bar which also does breakfast, but the bar shuts at 10.00 each night as I guess they assume everyone just uses it as a starting point, which is fair enough.The staff are really nice and helpfull, the rooms are well insulated from noise, I never heard anything at all except when you were in the corridors and the residents (some of them in large groups at the weekend) were waiting on 1 of the only 2 lifts. to be honest we only had to wait twice on lifts arriving to floor 11, the rest of the times it came within a minute. The reception has a secured and locked baggage room which is ticketted and only accessible by the reception staff for leaving your bags in safely till you are ready to departIt's situated at the bottom of Canal street and you can walk to Borboun St in 10 minutes, the riverwalk and mississippi in 20 minutes, and the price was reasonable at $1200 for a week for 2 people. The first 200 yards when you leave the hotel are a bit rundown and there is some development going on, and  there are a few homeless and sometimes aimless people about, but they don't bother you at all. The street talk is funny and loud as you pass by groups, but no hassle whatsoever as long as you offer due respect. There are better and nicer hotels in the area with world-wide recognized names, but this one is well positioned, clean and very well priced, I would recommend it to anyone from teenage to late middle age.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d9077362-r624674103-B_on_Canal-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>624674103</t>
+  </si>
+  <si>
+    <t>10/14/2018</t>
+  </si>
+  <si>
+    <t>Enjoyable Stay</t>
+  </si>
+  <si>
+    <t>We stayed at the hotel from October 6 to 13th.  The lobby is so stunning. My girlfriend jokingly called it the Bordello.  The service was good. The staff were very friendly.
+ I had an incident where we thought someone had stolen my Ipad in the room.  We could not find it in the safe so we thought that we might have not put it in the safe when we left for the day,  The manager came up and checked the room thoroughly.  They completed diagnostics on the door to determine who had entered the room.  Keith the manager spent a good hour with us.  He wrote an incident report and told us to call the police to report the possible theft. I phoned the police, gave them the details and they provided me with an incident number.  I went back to the room to put the information from the police in the safe with my travelling documents and decided to check the safe again.  I felt the sides and one side felt leathery and lo and behold the Ipad was stuck to the side.  The Ipad cover is magnetized and it had fastened itself to the side of the safe.  Well needless to say I was rather embarrassed. But the manager checked the safe too. It was missed by all of us.  I went down to let the manager  know so that they could close the incident.  The manager and...We stayed at the hotel from October 6 to 13th.  The lobby is so stunning. My girlfriend jokingly called it the Bordello.  The service was good. The staff were very friendly. I had an incident where we thought someone had stolen my Ipad in the room.  We could not find it in the safe so we thought that we might have not put it in the safe when we left for the day,  The manager came up and checked the room thoroughly.  They completed diagnostics on the door to determine who had entered the room.  Keith the manager spent a good hour with us.  He wrote an incident report and told us to call the police to report the possible theft. I phoned the police, gave them the details and they provided me with an incident number.  I went back to the room to put the information from the police in the safe with my travelling documents and decided to check the safe again.  I felt the sides and one side felt leathery and lo and behold the Ipad was stuck to the side.  The Ipad cover is magnetized and it had fastened itself to the side of the safe.  Well needless to say I was rather embarrassed. But the manager checked the safe too. It was missed by all of us.  I went down to let the manager  know so that they could close the incident.  The manager and the general manager were both very polite about the whole incident and they told me that they learned something new too. The rooms were clean but there were finger prints on the mirrors, windows and walls. I am on chemo drugs so I have to be careful. That was an easy solution. We just got some lysol wipes and wiped everything down.  The beds were comfortable. The carpet is tired and I suspect needs replacing as my allergies kicked in when I was in the room.  We had to ask for wash clothes but no biggie.  The staff were quick to respond.  The soap holder caused us grief.  It kept on falling. My suggestion to the hotel staff is to ditch them  The shower temperature was either really hot or no pressure.   I didn't come to NOLA for a luxury shower so I was okay with that.  The building is old and with that comes hot, cold and water pressure issues. People also complained about the elevator how it groaned. But I thought it was cool. There have been a lot of poor reviews about this hotel and their customer service.  However I witnessed a lot of people treating the front desk staff very poorly.  You need to read between the lines. If you treat the staff nicely, they treat you back the same way.  They were very pleasant. The staff were so helpful. As far as the lady getting mugged in one of the reviews, my guess was that she was out very late at night and was not careful.  If you are drinking and out late at night and are not mindful than you are a walking target.It was late in a Saturday night when we arrived and we were very hungry.  We asked how to get to Bourbon Street so that we could get a bite to eat.  One of the cleaning ladies was very reluctant about us going Bourbon Street so late.  She really did not want us to go there. It was the end of her shift and she was going to accompany us on the trolley. In the end we decided to go across the street and get a quick bite to go. It was a nice that the staff cared about your safety. People complained about the small bottle of water they got in the room. Well get a travel bottle, fill it up with ice and then go down to the lobby and fill it up with the water infused with mint and blueberries.  It was great. I had a very nice stay. The staff were very friendly and cared your stay.  I would go back there in a heart beat. Thank you for making my stay in NOLA safe and enjoyable.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>We stayed at the hotel from October 6 to 13th.  The lobby is so stunning. My girlfriend jokingly called it the Bordello.  The service was good. The staff were very friendly.
+ I had an incident where we thought someone had stolen my Ipad in the room.  We could not find it in the safe so we thought that we might have not put it in the safe when we left for the day,  The manager came up and checked the room thoroughly.  They completed diagnostics on the door to determine who had entered the room.  Keith the manager spent a good hour with us.  He wrote an incident report and told us to call the police to report the possible theft. I phoned the police, gave them the details and they provided me with an incident number.  I went back to the room to put the information from the police in the safe with my travelling documents and decided to check the safe again.  I felt the sides and one side felt leathery and lo and behold the Ipad was stuck to the side.  The Ipad cover is magnetized and it had fastened itself to the side of the safe.  Well needless to say I was rather embarrassed. But the manager checked the safe too. It was missed by all of us.  I went down to let the manager  know so that they could close the incident.  The manager and...We stayed at the hotel from October 6 to 13th.  The lobby is so stunning. My girlfriend jokingly called it the Bordello.  The service was good. The staff were very friendly. I had an incident where we thought someone had stolen my Ipad in the room.  We could not find it in the safe so we thought that we might have not put it in the safe when we left for the day,  The manager came up and checked the room thoroughly.  They completed diagnostics on the door to determine who had entered the room.  Keith the manager spent a good hour with us.  He wrote an incident report and told us to call the police to report the possible theft. I phoned the police, gave them the details and they provided me with an incident number.  I went back to the room to put the information from the police in the safe with my travelling documents and decided to check the safe again.  I felt the sides and one side felt leathery and lo and behold the Ipad was stuck to the side.  The Ipad cover is magnetized and it had fastened itself to the side of the safe.  Well needless to say I was rather embarrassed. But the manager checked the safe too. It was missed by all of us.  I went down to let the manager  know so that they could close the incident.  The manager and the general manager were both very polite about the whole incident and they told me that they learned something new too. The rooms were clean but there were finger prints on the mirrors, windows and walls. I am on chemo drugs so I have to be careful. That was an easy solution. We just got some lysol wipes and wiped everything down.  The beds were comfortable. The carpet is tired and I suspect needs replacing as my allergies kicked in when I was in the room.  We had to ask for wash clothes but no biggie.  The staff were quick to respond.  The soap holder caused us grief.  It kept on falling. My suggestion to the hotel staff is to ditch them  The shower temperature was either really hot or no pressure.   I didn't come to NOLA for a luxury shower so I was okay with that.  The building is old and with that comes hot, cold and water pressure issues. People also complained about the elevator how it groaned. But I thought it was cool. There have been a lot of poor reviews about this hotel and their customer service.  However I witnessed a lot of people treating the front desk staff very poorly.  You need to read between the lines. If you treat the staff nicely, they treat you back the same way.  They were very pleasant. The staff were so helpful. As far as the lady getting mugged in one of the reviews, my guess was that she was out very late at night and was not careful.  If you are drinking and out late at night and are not mindful than you are a walking target.It was late in a Saturday night when we arrived and we were very hungry.  We asked how to get to Bourbon Street so that we could get a bite to eat.  One of the cleaning ladies was very reluctant about us going Bourbon Street so late.  She really did not want us to go there. It was the end of her shift and she was going to accompany us on the trolley. In the end we decided to go across the street and get a quick bite to go. It was a nice that the staff cared about your safety. People complained about the small bottle of water they got in the room. Well get a travel bottle, fill it up with ice and then go down to the lobby and fill it up with the water infused with mint and blueberries.  It was great. I had a very nice stay. The staff were very friendly and cared your stay.  I would go back there in a heart beat. Thank you for making my stay in NOLA safe and enjoyable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d9077362-r623275983-B_on_Canal-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>623275983</t>
+  </si>
+  <si>
+    <t>10/08/2018</t>
+  </si>
+  <si>
+    <t>WORST STAFF EVER</t>
+  </si>
+  <si>
+    <t>ZERO STARS if it was an option.
+For the price they charge you, you get NOTHING for your money.  The elevator is tiny, the front desk is RUDE and horrible.  I just stayed at this JOKE of  hotel October 5-7, 2018.  I was super excited for this trip for a bacholerette party I was attending.  We went out and did the whole Bourbon street thing and on the way back to the hotel... crossing the street to get  there in front of it, I was mugged.
+I went in, told the front desk lady and she said, " Did it happen at the hotel?"  I told her no right outside it though.  She replied with a cold, " What do you want me to do.  If it didn't happen her, it's not my issue.?"  At this point I became pissed and told her I wanted to call the Police which is when she told me to call them then.  I asked to use the desk phone because I had mine stolen. She did not want to let me use their phone.  Some other guest got involved at this point and was telling her to just let me use their phone, so finally she let me.  I called the Police who told me it was not a priority for them to come out.
+After, I hung up another guest came down the stairs VOMIT IN HER HANDS!!!  Asking for a trash...ZERO STARS if it was an option.For the price they charge you, you get NOTHING for your money.  The elevator is tiny, the front desk is RUDE and horrible.  I just stayed at this JOKE of  hotel October 5-7, 2018.  I was super excited for this trip for a bacholerette party I was attending.  We went out and did the whole Bourbon street thing and on the way back to the hotel... crossing the street to get  there in front of it, I was mugged.I went in, told the front desk lady and she said, " Did it happen at the hotel?"  I told her no right outside it though.  She replied with a cold, " What do you want me to do.  If it didn't happen her, it's not my issue.?"  At this point I became pissed and told her I wanted to call the Police which is when she told me to call them then.  I asked to use the desk phone because I had mine stolen. She did not want to let me use their phone.  Some other guest got involved at this point and was telling her to just let me use their phone, so finally she let me.  I called the Police who told me it was not a priority for them to come out.After, I hung up another guest came down the stairs VOMIT IN HER HANDS!!!  Asking for a trash can, because her friend was throwing up and it was getting on the hotels floor.  The SAME front desk lady told her NOT to yell at her and she could go to her room and get that trash can.  The lady with the vomit then yelled at the receptionist she was just trying not to have puke all over the hotel floor and the STUPID WORKER said she would call security and have her and her group kicked out.  I was lost at this point why she nor the other worker would not just give her a trash can.   I told them they were a JOKE and this was the WORST HOTEL SERVICE I have ever experienced, the bigger worker woman then told ME I would be kicked out of the hotel.  So, I yelled at her that she could go ahead and do it, but I would be writing a review to let future people know that they do not care about the guests that stay at this JOKE and WE the guests are how these stupid people get paid.The manager on duty came out to see what all was going on during this to and just hid then walked away.  She was NO help.  Oh, and if you get mugged, don't worry about the Police.  Took 5 hours for them to come and they said the same thing, "  You called because someone attacked you.... what do you want me to do? Just get a new phone."  I closed the door in her face after I told her she was useless and a POS. They also, never even came in to make the bed during my stay or empty the garbage in the restroom.  The ONLY nice person during the whole stay was the bell boy, Larry I believe. DO NOT WASTE YOUR TIME OR MONEY ON B ON CANAL!!!!   I would never stay there again even if it was free.MoreShow less</t>
+  </si>
+  <si>
+    <t>ZERO STARS if it was an option.
+For the price they charge you, you get NOTHING for your money.  The elevator is tiny, the front desk is RUDE and horrible.  I just stayed at this JOKE of  hotel October 5-7, 2018.  I was super excited for this trip for a bacholerette party I was attending.  We went out and did the whole Bourbon street thing and on the way back to the hotel... crossing the street to get  there in front of it, I was mugged.
+I went in, told the front desk lady and she said, " Did it happen at the hotel?"  I told her no right outside it though.  She replied with a cold, " What do you want me to do.  If it didn't happen her, it's not my issue.?"  At this point I became pissed and told her I wanted to call the Police which is when she told me to call them then.  I asked to use the desk phone because I had mine stolen. She did not want to let me use their phone.  Some other guest got involved at this point and was telling her to just let me use their phone, so finally she let me.  I called the Police who told me it was not a priority for them to come out.
+After, I hung up another guest came down the stairs VOMIT IN HER HANDS!!!  Asking for a trash...ZERO STARS if it was an option.For the price they charge you, you get NOTHING for your money.  The elevator is tiny, the front desk is RUDE and horrible.  I just stayed at this JOKE of  hotel October 5-7, 2018.  I was super excited for this trip for a bacholerette party I was attending.  We went out and did the whole Bourbon street thing and on the way back to the hotel... crossing the street to get  there in front of it, I was mugged.I went in, told the front desk lady and she said, " Did it happen at the hotel?"  I told her no right outside it though.  She replied with a cold, " What do you want me to do.  If it didn't happen her, it's not my issue.?"  At this point I became pissed and told her I wanted to call the Police which is when she told me to call them then.  I asked to use the desk phone because I had mine stolen. She did not want to let me use their phone.  Some other guest got involved at this point and was telling her to just let me use their phone, so finally she let me.  I called the Police who told me it was not a priority for them to come out.After, I hung up another guest came down the stairs VOMIT IN HER HANDS!!!  Asking for a trash can, because her friend was throwing up and it was getting on the hotels floor.  The SAME front desk lady told her NOT to yell at her and she could go to her room and get that trash can.  The lady with the vomit then yelled at the receptionist she was just trying not to have puke all over the hotel floor and the STUPID WORKER said she would call security and have her and her group kicked out.  I was lost at this point why she nor the other worker would not just give her a trash can.   I told them they were a JOKE and this was the WORST HOTEL SERVICE I have ever experienced, the bigger worker woman then told ME I would be kicked out of the hotel.  So, I yelled at her that she could go ahead and do it, but I would be writing a review to let future people know that they do not care about the guests that stay at this JOKE and WE the guests are how these stupid people get paid.The manager on duty came out to see what all was going on during this to and just hid then walked away.  She was NO help.  Oh, and if you get mugged, don't worry about the Police.  Took 5 hours for them to come and they said the same thing, "  You called because someone attacked you.... what do you want me to do? Just get a new phone."  I closed the door in her face after I told her she was useless and a POS. They also, never even came in to make the bed during my stay or empty the garbage in the restroom.  The ONLY nice person during the whole stay was the bell boy, Larry I believe. DO NOT WASTE YOUR TIME OR MONEY ON B ON CANAL!!!!   I would never stay there again even if it was free.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d9077362-r621696234-B_on_Canal-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>621696234</t>
+  </si>
+  <si>
+    <t>10/02/2018</t>
+  </si>
+  <si>
+    <t>bad experience</t>
+  </si>
+  <si>
+    <t>I see why the reviews are what they are for this hotel. The hotel renovations are nice and have a few issues. I stayed three nights and got hot water on the final night when the manager came to work which leads me to the whole bases of my review.I never been to a hotel when there's only one supervisor on duty so there's a high level of incompetence until he shows up. Then the worst part is that one young lady in the evening should be at a fast food restaurant because of her attitude and work ethic. I complain about my issue and she gave the body language of, shut up and get out of my face.The hotel wasn't the cheapest to run into the motel customer service that I received. There was no compensation of any kind for cold showers and I didn't expect any. How can you expect 4 or 5 star service when the front desk agent was one star. Don't let the pictures fool you because if they do then you'll be joining me and others with the bad review complaints.MoreShow less</t>
+  </si>
+  <si>
+    <t>NicoleC5788, AGM at B on Canal, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>I see why the reviews are what they are for this hotel. The hotel renovations are nice and have a few issues. I stayed three nights and got hot water on the final night when the manager came to work which leads me to the whole bases of my review.I never been to a hotel when there's only one supervisor on duty so there's a high level of incompetence until he shows up. Then the worst part is that one young lady in the evening should be at a fast food restaurant because of her attitude and work ethic. I complain about my issue and she gave the body language of, shut up and get out of my face.The hotel wasn't the cheapest to run into the motel customer service that I received. There was no compensation of any kind for cold showers and I didn't expect any. How can you expect 4 or 5 star service when the front desk agent was one star. Don't let the pictures fool you because if they do then you'll be joining me and others with the bad review complaints.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d9077362-r616988558-B_on_Canal-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>616988558</t>
+  </si>
+  <si>
+    <t>09/16/2018</t>
+  </si>
+  <si>
+    <t>Absolutely beautiful!!!</t>
+  </si>
+  <si>
+    <t>First, let me start by saying that the facility is absolutely beautiful!! Jasmine, at the front desk was SO helpful. We got off of our cruise ship, walked ALL the way down &amp; we were able to check right in, because they had some rooms available for early check-in. The room was very nice with great amenities, the BEST mattresses and just a beautiful ambiance. We were close to everything; “We Dats” is right across the street, Bourbon street is within walking distance and my favorite Willie’s Chicken is right up the street and also in walking distance. They have some amazing chicken, biscuits and those super tall daiquiris. We also took a ride on the street car which was super cool and right in front of the hotel. Everything was just great and I would definitely recommend The B on Canal to everyone. If you come happy and ready to have a good time, you will :-)MoreShow less</t>
+  </si>
+  <si>
+    <t>First, let me start by saying that the facility is absolutely beautiful!! Jasmine, at the front desk was SO helpful. We got off of our cruise ship, walked ALL the way down &amp; we were able to check right in, because they had some rooms available for early check-in. The room was very nice with great amenities, the BEST mattresses and just a beautiful ambiance. We were close to everything; “We Dats” is right across the street, Bourbon street is within walking distance and my favorite Willie’s Chicken is right up the street and also in walking distance. They have some amazing chicken, biscuits and those super tall daiquiris. We also took a ride on the street car which was super cool and right in front of the hotel. Everything was just great and I would definitely recommend The B on Canal to everyone. If you come happy and ready to have a good time, you will :-)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d9077362-r616085862-B_on_Canal-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>616085862</t>
+  </si>
+  <si>
+    <t>09/12/2018</t>
+  </si>
+  <si>
+    <t>Great location for price!</t>
+  </si>
+  <si>
+    <t>Nice clean hotel with very friendly staff. We were about 10 minutes from bourbon and 10 from the stadium. Very very easy to take the transit anywhere as there is a bus station and trolley station right in front. You can get to Frenchman with only a single trolley ride or the airport with one bus ride. The beds are comfortable, and we didn’t have any street noise like I’ve had when we stayed closer to bourbon. We will 100% stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>Nice clean hotel with very friendly staff. We were about 10 minutes from bourbon and 10 from the stadium. Very very easy to take the transit anywhere as there is a bus station and trolley station right in front. You can get to Frenchman with only a single trolley ride or the airport with one bus ride. The beds are comfortable, and we didn’t have any street noise like I’ve had when we stayed closer to bourbon. We will 100% stay here again!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d9077362-r614205318-B_on_Canal-New_Orleans_Louisiana.html</t>
   </si>
   <si>
-    <t>60864</t>
-  </si>
-  <si>
-    <t>9077362</t>
-  </si>
-  <si>
     <t>614205318</t>
   </si>
   <si>
@@ -114,13 +335,19 @@
     <t>Very comfortable and clean</t>
   </si>
   <si>
-    <t>I really enjoyed my stay here. Just a short walk to where all the action happens, even quite a few midnight eats around. Location is good - especially for football. Checked in the middle of the night, hotel front door is around the curb and not in front of the restaurant like some claimed. Greeted with bottle water, check in was easy peasy. Hotel is clean, so was my room. Very comfortable and they did recent renovations so things are updated. Love my Aveda products, awesome shower and staff was more than helpful. I have no complaints. Thank you for a great stay.</t>
+    <t>I really enjoyed my stay here. Just a short walk to where all the action happens, even quite a few midnight eats around. Location is good - especially for football. Checked in the middle of the night, hotel front door is around the curb and not in front of the restaurant like some claimed. Greeted with bottle water, check in was easy peasy. Hotel is clean, so was my room. Very comfortable and they did recent renovations so things are updated. Love my Aveda products, awesome shower and staff was more than helpful. I have no complaints. Thank you for a great stay.MoreShow less</t>
   </si>
   <si>
     <t>July 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
+    <t>Nicole C, AGM at B on Canal, responded to this reviewResponded September 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded September 8, 2018</t>
+  </si>
+  <si>
+    <t>I really enjoyed my stay here. Just a short walk to where all the action happens, even quite a few midnight eats around. Location is good - especially for football. Checked in the middle of the night, hotel front door is around the curb and not in front of the restaurant like some claimed. Greeted with bottle water, check in was easy peasy. Hotel is clean, so was my room. Very comfortable and they did recent renovations so things are updated. Love my Aveda products, awesome shower and staff was more than helpful. I have no complaints. Thank you for a great stay.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d9077362-r610517973-B_on_Canal-New_Orleans_Louisiana.html</t>
@@ -162,9 +389,6 @@
 The agent then advised that she had to send the issue to the billing department since she couldn't reconcile it at that point. Tells me...Booked a reservation through a 3rd party site yesterday and needed to change plans so I cancelled the reservation literally an hour later. The terms of the reservation, which I read carefully before I even booked, said I had two (2) weeks to cancel the reservation free of charge. This morning, however, the hotel charges me for the FULL amount of the stay and when I called the hotel to fix it., the reservations agent blamed it on the 3rd party site (whom I booked the hotel through) saying they noted that my reservation was not eligible for free cancellation. Which was a lie because I had the confirmation email wherein it says in clear writing that it is. So I called the 3rd party site (Expedia) and the agent tells me that what the reservations agent told me is not true but that she would call the hotel directly. She puts me on hold and 3 min later comes back and tells me the hotel advised that they don't have a pending charge for me. A BLATANT LIE because 1. my bank account shows a pending charge for the full amount and 2. the reservation agent @ the hotel I spoke to previously SAID they had charged me. So they lied to the rep.The agent then advised that she had to send the issue to the billing department since she couldn't reconcile it at that point. Tells me it'll be 7 business days to receive my money back. I am not happy with this experience. This hotel was not only not helpful and inconvenienced me but also lied when contacted to correct their error. Never stayed at this hotel before and certainly never will in the future if I visit NO again. And if this isn't resolved within 7 days I will be contacting the BBB.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Booked a reservation through a 3rd party site yesterday and needed to change plans so I cancelled the reservation literally an hour later. The terms of the reservation, which I read carefully before I even booked, said I had two (2) weeks to cancel the reservation free of charge. 
 This morning, however, the hotel charges me for the FULL amount of the stay and when I called the hotel to fix it., the reservations agent blamed it on the 3rd party site (whom I booked the hotel through) saying they noted that my reservation was not eligible for free cancellation. Which was a lie because I had the confirmation email wherein it says in clear writing that it is. 
 So I called the 3rd party site (Expedia) and the agent tells me that what the reservations agent told me is not true but that she would call the hotel directly. She puts me on hold and 3 min later comes back and tells me the hotel advised that they don't have a pending charge for me. A BLATANT LIE because 1. my bank account shows a pending charge for the full amount and 2. the reservation agent @ the hotel I spoke to previously SAID they had charged me. So they lied to the rep.
@@ -186,10 +410,10 @@
     <t>Hotel was nothing special. The guy who helped with bags was extremely nice and I enjoyed the bartender at the restaurant. The entrance was beautiful. The elevators made us think we would get stuck because of the noise and movement and were small. The hotel ran out of towels and wash clothes. We had been asking and asking, and initially, we were told they were coming but never did. Finally, someone told us a day later that they were all being washed. Clearly not prepared for the clientele booked. The shower only had a half of a door so we had to keep towels down to keep the water from making a mess. The printer needed a new toner so we couldn’t print out our concert tickets. We went during Essence Festival by the way. To top it off, I see I was charged $802 on my departure date. For what, I have no idea. We didn’t even book through b on canal directly to be charged for the room, which was paid for prior to arrival through jetblue and we left no damages so someone clearly did what they wanted to do with my card which was only provided for incidentals. Talk about an inconvenience! I have interest and a late fee to pay on a charge I shouldn’t even have. Good thing I randomly looked on my card’s account. Will never stay here again. The third good thing...Hotel was nothing special. The guy who helped with bags was extremely nice and I enjoyed the bartender at the restaurant. The entrance was beautiful. The elevators made us think we would get stuck because of the noise and movement and were small. The hotel ran out of towels and wash clothes. We had been asking and asking, and initially, we were told they were coming but never did. Finally, someone told us a day later that they were all being washed. Clearly not prepared for the clientele booked. The shower only had a half of a door so we had to keep towels down to keep the water from making a mess. The printer needed a new toner so we couldn’t print out our concert tickets. We went during Essence Festival by the way. To top it off, I see I was charged $802 on my departure date. For what, I have no idea. We didn’t even book through b on canal directly to be charged for the room, which was paid for prior to arrival through jetblue and we left no damages so someone clearly did what they wanted to do with my card which was only provided for incidentals. Talk about an inconvenience! I have interest and a late fee to pay on a charge I shouldn’t even have. Good thing I randomly looked on my card’s account. Will never stay here again. The third good thing is the location. It’s walking distance to bourbon street and the superdome. Rooms were average. No microwave or refrigerator. Never again. I had high expectations since they renovated but never again!One more good thing. We booked a one bed one pull out couch room but got a room with two beds. We were happy about that, since it was three of us. However, that didn’t outshine the poor service and troubles.MoreShow less</t>
   </si>
   <si>
-    <t>Bruce P, Manager at B on Canal, responded to this reviewResponded 2 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 2 weeks ago</t>
+    <t>Bruce P, Manager at B on Canal, responded to this reviewResponded August 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded August 20, 2018</t>
   </si>
   <si>
     <t>Hotel was nothing special. The guy who helped with bags was extremely nice and I enjoyed the bartender at the restaurant. The entrance was beautiful. The elevators made us think we would get stuck because of the noise and movement and were small. The hotel ran out of towels and wash clothes. We had been asking and asking, and initially, we were told they were coming but never did. Finally, someone told us a day later that they were all being washed. Clearly not prepared for the clientele booked. The shower only had a half of a door so we had to keep towels down to keep the water from making a mess. The printer needed a new toner so we couldn’t print out our concert tickets. We went during Essence Festival by the way. To top it off, I see I was charged $802 on my departure date. For what, I have no idea. We didn’t even book through b on canal directly to be charged for the room, which was paid for prior to arrival through jetblue and we left no damages so someone clearly did what they wanted to do with my card which was only provided for incidentals. Talk about an inconvenience! I have interest and a late fee to pay on a charge I shouldn’t even have. Good thing I randomly looked on my card’s account. Will never stay here again. The third good thing...Hotel was nothing special. The guy who helped with bags was extremely nice and I enjoyed the bartender at the restaurant. The entrance was beautiful. The elevators made us think we would get stuck because of the noise and movement and were small. The hotel ran out of towels and wash clothes. We had been asking and asking, and initially, we were told they were coming but never did. Finally, someone told us a day later that they were all being washed. Clearly not prepared for the clientele booked. The shower only had a half of a door so we had to keep towels down to keep the water from making a mess. The printer needed a new toner so we couldn’t print out our concert tickets. We went during Essence Festival by the way. To top it off, I see I was charged $802 on my departure date. For what, I have no idea. We didn’t even book through b on canal directly to be charged for the room, which was paid for prior to arrival through jetblue and we left no damages so someone clearly did what they wanted to do with my card which was only provided for incidentals. Talk about an inconvenience! I have interest and a late fee to pay on a charge I shouldn’t even have. Good thing I randomly looked on my card’s account. Will never stay here again. The third good thing is the location. It’s walking distance to bourbon street and the superdome. Rooms were average. No microwave or refrigerator. Never again. I had high expectations since they renovated but never again!One more good thing. We booked a one bed one pull out couch room but got a room with two beds. We were happy about that, since it was three of us. However, that didn’t outshine the poor service and troubles.More</t>
@@ -208,9 +432,6 @@
   </si>
   <si>
     <t>Booked a room through a third party. Selected a kind bed with a separate sitting area. I called a week before my arrival to confirm reservation, person I spoke with was unable to locate it. I offered to share the confirmation number and was told it was not helpful since it was through a third party. Disconnected and called back a few minutes later and got a pleasant woman who was able to locate the reservation immediately. Check in was at 4pm however we arrived an hour early. We were able to check in early with no problem. The room was a king (extremely comfortable!) however there was no separate sitting area. The room was very small with the bed taking up the space. The bathroom was stocked with only two bath towels however the water was always as hot as you wanted it (huge plus in my opinion). Coffee and tea was provided in the room however there was only one small bottle of water. Our room was at the end of the hall next to an electrical room. I could hear random mechanical noises throughout the night but nothing too disturbing. The elevators show their age and make some noise. They were freshly painted during my stay and had wet paint signs posted.  The location is within comfortable walking distance to Bourbon Street. It seems to be on the less than stellar side of Canal. Overall the decor...Booked a room through a third party. Selected a kind bed with a separate sitting area. I called a week before my arrival to confirm reservation, person I spoke with was unable to locate it. I offered to share the confirmation number and was told it was not helpful since it was through a third party. Disconnected and called back a few minutes later and got a pleasant woman who was able to locate the reservation immediately. Check in was at 4pm however we arrived an hour early. We were able to check in early with no problem. The room was a king (extremely comfortable!) however there was no separate sitting area. The room was very small with the bed taking up the space. The bathroom was stocked with only two bath towels however the water was always as hot as you wanted it (huge plus in my opinion). Coffee and tea was provided in the room however there was only one small bottle of water. Our room was at the end of the hall next to an electrical room. I could hear random mechanical noises throughout the night but nothing too disturbing. The elevators show their age and make some noise. They were freshly painted during my stay and had wet paint signs posted.  The location is within comfortable walking distance to Bourbon Street. It seems to be on the less than stellar side of Canal. Overall the decor was interesting and the lobby very clean and well kept. There is a fitness facility however no business center. I was able to print my boarding passes at the front desk with no problem. MoreShow less</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
     <t>Booked a room through a third party. Selected a kind bed with a separate sitting area. I called a week before my arrival to confirm reservation, person I spoke with was unable to locate it. I offered to share the confirmation number and was told it was not helpful since it was through a third party. Disconnected and called back a few minutes later and got a pleasant woman who was able to locate the reservation immediately. Check in was at 4pm however we arrived an hour early. We were able to check in early with no problem. The room was a king (extremely comfortable!) however there was no separate sitting area. The room was very small with the bed taking up the space. The bathroom was stocked with only two bath towels however the water was always as hot as you wanted it (huge plus in my opinion). Coffee and tea was provided in the room however there was only one small bottle of water. Our room was at the end of the hall next to an electrical room. I could hear random mechanical noises throughout the night but nothing too disturbing. The elevators show their age and make some noise. They were freshly painted during my stay and had wet paint signs posted.  The location is within comfortable walking distance to Bourbon Street. It seems to be on the less than stellar side of Canal. Overall the decor...Booked a room through a third party. Selected a kind bed with a separate sitting area. I called a week before my arrival to confirm reservation, person I spoke with was unable to locate it. I offered to share the confirmation number and was told it was not helpful since it was through a third party. Disconnected and called back a few minutes later and got a pleasant woman who was able to locate the reservation immediately. Check in was at 4pm however we arrived an hour early. We were able to check in early with no problem. The room was a king (extremely comfortable!) however there was no separate sitting area. The room was very small with the bed taking up the space. The bathroom was stocked with only two bath towels however the water was always as hot as you wanted it (huge plus in my opinion). Coffee and tea was provided in the room however there was only one small bottle of water. Our room was at the end of the hall next to an electrical room. I could hear random mechanical noises throughout the night but nothing too disturbing. The elevators show their age and make some noise. They were freshly painted during my stay and had wet paint signs posted.  The location is within comfortable walking distance to Bourbon Street. It seems to be on the less than stellar side of Canal. Overall the decor was interesting and the lobby very clean and well kept. There is a fitness facility however no business center. I was able to print my boarding passes at the front desk with no problem. More</t>
@@ -333,9 +554,6 @@
   </si>
   <si>
     <t>Stay somewhere else please !-Asked for an Iron twice—never got it.-In room phone did not work, asked twice about it. Never fixed.-Staff was not helpful and could care less.-Outside of hotel was dark at night. Scary.-Water in the hotel was turned off for 3 hours for maintenance.-Overpriced-No greeting at check in or check out.-Again,staff did not care...again, staff did not care.-Hey but,room was pretty nice and roomy.-Out side of hotel in the front smelled like sewage.-This is a place that is struggling to be a hotel. They are not there yet. Probably never will because....the staff DID NOT care !Stay somewhere else !MoreShow less</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
     <t>Nicole C, Manager at B on Canal, responded to this reviewResponded July 23, 2018</t>
@@ -1029,7 +1247,7 @@
         <v>32</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N2" t="s">
         <v>33</v>
@@ -1037,23 +1255,19 @@
       <c r="O2" t="s">
         <v>34</v>
       </c>
-      <c r="P2" t="n">
-        <v>5</v>
-      </c>
+      <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
@@ -1069,7 +1283,7 @@
         <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -1078,25 +1292,25 @@
         <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1110,7 +1324,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -1126,7 +1340,7 @@
         <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -1135,29 +1349,33 @@
         <v>28</v>
       </c>
       <c r="I4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
@@ -1169,7 +1387,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
@@ -1185,7 +1403,7 @@
         <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G5" t="s">
         <v>27</v>
@@ -1194,26 +1412,22 @@
         <v>28</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" t="s">
-        <v>34</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
@@ -1223,14 +1437,10 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>54</v>
-      </c>
-      <c r="X5" t="s">
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
         <v>55</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6">
@@ -1246,7 +1456,7 @@
         <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G6" t="s">
         <v>27</v>
@@ -1255,43 +1465,45 @@
         <v>28</v>
       </c>
       <c r="I6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" t="s">
         <v>58</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>59</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>60</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" t="s">
         <v>61</v>
       </c>
-      <c r="M6" t="n">
-        <v>2</v>
-      </c>
-      <c r="N6" t="s">
-        <v>40</v>
-      </c>
-      <c r="O6" t="s">
-        <v>62</v>
-      </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>54</v>
-      </c>
-      <c r="X6" t="s">
-        <v>55</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7">
@@ -1307,7 +1519,7 @@
         <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G7" t="s">
         <v>27</v>
@@ -1316,49 +1528,43 @@
         <v>28</v>
       </c>
       <c r="I7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" t="s">
         <v>65</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>66</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>67</v>
       </c>
-      <c r="L7" t="s">
-        <v>68</v>
-      </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="O7" t="s">
-        <v>34</v>
-      </c>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="n">
-        <v>4</v>
-      </c>
-      <c r="R7" t="n">
-        <v>5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>54</v>
-      </c>
-      <c r="X7" t="s">
-        <v>55</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8">
@@ -1374,7 +1580,7 @@
         <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G8" t="s">
         <v>27</v>
@@ -1383,25 +1589,25 @@
         <v>28</v>
       </c>
       <c r="I8" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" t="s">
         <v>71</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>72</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>73</v>
       </c>
-      <c r="L8" t="s">
-        <v>74</v>
-      </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N8" t="s">
         <v>33</v>
       </c>
       <c r="O8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1413,13 +1619,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="X8" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="Y8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
@@ -1435,7 +1641,7 @@
         <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s">
         <v>27</v>
@@ -1444,49 +1650,43 @@
         <v>28</v>
       </c>
       <c r="I9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
         <v>33</v>
       </c>
       <c r="O9" t="s">
-        <v>34</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
-      <c r="S9" t="n">
-        <v>2</v>
-      </c>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>1</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="X9" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="Y9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10">
@@ -1502,7 +1702,7 @@
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G10" t="s">
         <v>27</v>
@@ -1511,49 +1711,43 @@
         <v>28</v>
       </c>
       <c r="I10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="O10" t="s">
-        <v>34</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>1</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
+        <v>74</v>
+      </c>
+      <c r="X10" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y10" t="s">
         <v>88</v>
-      </c>
-      <c r="X10" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="11">
@@ -1569,7 +1763,7 @@
         <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G11" t="s">
         <v>27</v>
@@ -1578,32 +1772,36 @@
         <v>28</v>
       </c>
       <c r="I11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J11" t="s">
+        <v>91</v>
+      </c>
+      <c r="K11" t="s">
         <v>92</v>
       </c>
-      <c r="J11" t="s">
-        <v>84</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>93</v>
-      </c>
-      <c r="L11" t="s">
-        <v>94</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="O11" t="s">
-        <v>34</v>
-      </c>
-      <c r="P11" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
@@ -1651,13 +1849,13 @@
         <v>102</v>
       </c>
       <c r="M12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="O12" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1669,13 +1867,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
+        <v>95</v>
+      </c>
+      <c r="X12" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y12" t="s">
         <v>104</v>
-      </c>
-      <c r="X12" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="13">
@@ -1691,7 +1889,7 @@
         <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G13" t="s">
         <v>27</v>
@@ -1700,43 +1898,45 @@
         <v>28</v>
       </c>
       <c r="I13" t="s">
+        <v>106</v>
+      </c>
+      <c r="J13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K13" t="s">
         <v>108</v>
       </c>
-      <c r="J13" t="s">
+      <c r="L13" t="s">
         <v>109</v>
       </c>
-      <c r="K13" t="s">
-        <v>110</v>
-      </c>
-      <c r="L13" t="s">
-        <v>111</v>
-      </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="O13" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="X13" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="Y13" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14">
@@ -1752,7 +1952,7 @@
         <v>25</v>
       </c>
       <c r="F14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G14" t="s">
         <v>27</v>
@@ -1761,25 +1961,25 @@
         <v>28</v>
       </c>
       <c r="I14" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J14" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K14" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="L14" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="O14" t="s">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -1791,13 +1991,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="X14" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Y14" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15">
@@ -1813,7 +2013,7 @@
         <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G15" t="s">
         <v>27</v>
@@ -1822,25 +2022,25 @@
         <v>28</v>
       </c>
       <c r="I15" t="s">
+        <v>120</v>
+      </c>
+      <c r="J15" t="s">
+        <v>121</v>
+      </c>
+      <c r="K15" t="s">
+        <v>122</v>
+      </c>
+      <c r="L15" t="s">
         <v>123</v>
       </c>
-      <c r="J15" t="s">
-        <v>124</v>
-      </c>
-      <c r="K15" t="s">
-        <v>125</v>
-      </c>
-      <c r="L15" t="s">
-        <v>126</v>
-      </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="O15" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -1852,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="X15" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Y15" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16">
@@ -1874,7 +2074,7 @@
         <v>25</v>
       </c>
       <c r="F16" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G16" t="s">
         <v>27</v>
@@ -1883,43 +2083,49 @@
         <v>28</v>
       </c>
       <c r="I16" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="J16" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K16" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L16" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="O16" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="X16" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="Y16" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17">
@@ -1935,7 +2141,7 @@
         <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G17" t="s">
         <v>27</v>
@@ -1944,22 +2150,26 @@
         <v>28</v>
       </c>
       <c r="I17" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="J17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="K17" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="L17" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
-      </c>
-      <c r="N17" t="s"/>
-      <c r="O17" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>94</v>
+      </c>
+      <c r="O17" t="s">
+        <v>48</v>
+      </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
@@ -1970,13 +2180,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="X17" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="Y17" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18">
@@ -1992,7 +2202,7 @@
         <v>25</v>
       </c>
       <c r="F18" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="G18" t="s">
         <v>27</v>
@@ -2001,43 +2211,49 @@
         <v>28</v>
       </c>
       <c r="I18" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J18" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="K18" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="L18" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="O18" t="s">
-        <v>120</v>
-      </c>
-      <c r="P18" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
       <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+      <c r="S18" t="n">
+        <v>2</v>
+      </c>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="X18" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="Y18" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19">
@@ -2053,7 +2269,7 @@
         <v>25</v>
       </c>
       <c r="F19" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="G19" t="s">
         <v>27</v>
@@ -2062,43 +2278,49 @@
         <v>28</v>
       </c>
       <c r="I19" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="J19" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="K19" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="L19" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="O19" t="s">
-        <v>47</v>
-      </c>
-      <c r="P19" t="s"/>
-      <c r="Q19" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
       <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="X19" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="Y19" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20">
@@ -2114,7 +2336,7 @@
         <v>25</v>
       </c>
       <c r="F20" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="G20" t="s">
         <v>27</v>
@@ -2123,49 +2345,594 @@
         <v>28</v>
       </c>
       <c r="I20" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="J20" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="K20" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="L20" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="O20" t="s">
-        <v>62</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
+      <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>2</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
+        <v>156</v>
+      </c>
+      <c r="X20" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>41031</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>159</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s">
+        <v>160</v>
+      </c>
+      <c r="J21" t="s">
+        <v>161</v>
+      </c>
+      <c r="K21" t="s">
+        <v>162</v>
+      </c>
+      <c r="L21" t="s">
+        <v>163</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>94</v>
+      </c>
+      <c r="O21" t="s">
+        <v>42</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
         <v>164</v>
       </c>
-      <c r="X20" t="s">
+      <c r="X21" t="s">
         <v>165</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Y21" t="s">
         <v>166</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>41031</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>167</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>168</v>
+      </c>
+      <c r="J22" t="s">
+        <v>169</v>
+      </c>
+      <c r="K22" t="s">
+        <v>170</v>
+      </c>
+      <c r="L22" t="s">
+        <v>171</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>94</v>
+      </c>
+      <c r="O22" t="s">
+        <v>61</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>172</v>
+      </c>
+      <c r="X22" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>41031</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>175</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s">
+        <v>176</v>
+      </c>
+      <c r="J23" t="s">
+        <v>177</v>
+      </c>
+      <c r="K23" t="s">
+        <v>178</v>
+      </c>
+      <c r="L23" t="s">
+        <v>179</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>94</v>
+      </c>
+      <c r="O23" t="s">
+        <v>180</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>172</v>
+      </c>
+      <c r="X23" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>41031</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s">
+        <v>182</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>183</v>
+      </c>
+      <c r="J24" t="s">
+        <v>184</v>
+      </c>
+      <c r="K24" t="s">
+        <v>185</v>
+      </c>
+      <c r="L24" t="s">
+        <v>186</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>187</v>
+      </c>
+      <c r="O24" t="s">
+        <v>48</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>172</v>
+      </c>
+      <c r="X24" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>41031</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" t="s">
+        <v>189</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s">
+        <v>190</v>
+      </c>
+      <c r="J25" t="s">
+        <v>191</v>
+      </c>
+      <c r="K25" t="s">
+        <v>192</v>
+      </c>
+      <c r="L25" t="s">
+        <v>193</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>148</v>
+      </c>
+      <c r="O25" t="s">
+        <v>61</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>194</v>
+      </c>
+      <c r="X25" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>41031</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>197</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" t="s">
+        <v>198</v>
+      </c>
+      <c r="J26" t="s">
+        <v>199</v>
+      </c>
+      <c r="K26" t="s">
+        <v>200</v>
+      </c>
+      <c r="L26" t="s">
+        <v>201</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>194</v>
+      </c>
+      <c r="X26" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>41031</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>203</v>
+      </c>
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" t="s">
+        <v>204</v>
+      </c>
+      <c r="J27" t="s">
+        <v>205</v>
+      </c>
+      <c r="K27" t="s">
+        <v>206</v>
+      </c>
+      <c r="L27" t="s">
+        <v>207</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>148</v>
+      </c>
+      <c r="O27" t="s">
+        <v>180</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>208</v>
+      </c>
+      <c r="X27" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>41031</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" t="s">
+        <v>211</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" t="s">
+        <v>212</v>
+      </c>
+      <c r="J28" t="s">
+        <v>213</v>
+      </c>
+      <c r="K28" t="s">
+        <v>214</v>
+      </c>
+      <c r="L28" t="s">
+        <v>215</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>148</v>
+      </c>
+      <c r="O28" t="s">
+        <v>48</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>216</v>
+      </c>
+      <c r="X28" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>41031</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" t="s">
+        <v>219</v>
+      </c>
+      <c r="G29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" t="s">
+        <v>220</v>
+      </c>
+      <c r="J29" t="s">
+        <v>221</v>
+      </c>
+      <c r="K29" t="s">
+        <v>222</v>
+      </c>
+      <c r="L29" t="s">
+        <v>223</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>148</v>
+      </c>
+      <c r="O29" t="s">
+        <v>34</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>2</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>224</v>
+      </c>
+      <c r="X29" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -2190,31 +2957,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>167</v>
+        <v>227</v>
       </c>
       <c r="C1" t="s">
-        <v>168</v>
+        <v>228</v>
       </c>
       <c r="D1" t="s">
-        <v>169</v>
+        <v>229</v>
       </c>
       <c r="E1" t="s">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="F1" t="s">
-        <v>171</v>
+        <v>231</v>
       </c>
       <c r="G1" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="H1" t="s">
-        <v>173</v>
+        <v>233</v>
       </c>
       <c r="I1" t="s">
-        <v>174</v>
+        <v>234</v>
       </c>
       <c r="J1" t="s">
-        <v>175</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2">
@@ -2222,31 +2989,31 @@
         <v>41031</v>
       </c>
       <c r="B2" t="s">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c r="C2" t="s">
-        <v>177</v>
+        <v>237</v>
       </c>
       <c r="D2" t="s">
-        <v>178</v>
+        <v>238</v>
       </c>
       <c r="E2" t="n">
         <v>70112</v>
       </c>
       <c r="F2" t="s">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="G2" t="s">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="H2" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="I2" t="s">
-        <v>182</v>
+        <v>242</v>
       </c>
       <c r="J2" t="s">
-        <v>183</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
